--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Vip</t>
+  </si>
+  <si>
+    <t>Vipr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vip</t>
-  </si>
-  <si>
-    <t>Vipr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.38698</v>
+        <v>0.360135</v>
       </c>
       <c r="H2">
-        <v>2.77396</v>
+        <v>0.72027</v>
       </c>
       <c r="I2">
-        <v>0.5967131687073423</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4965808999056411</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N2">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O2">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P2">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q2">
-        <v>0.04536672881999999</v>
+        <v>0.259840643715</v>
       </c>
       <c r="R2">
-        <v>0.2722003729199999</v>
+        <v>1.03936257486</v>
       </c>
       <c r="S2">
-        <v>0.00397370644327436</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="T2">
-        <v>0.003433509356260662</v>
+        <v>0.1934494256715044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.38698</v>
+        <v>0.360135</v>
       </c>
       <c r="H3">
-        <v>2.77396</v>
+        <v>0.72027</v>
       </c>
       <c r="I3">
-        <v>0.5967131687073423</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4965808999056411</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N3">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O3">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P3">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q3">
-        <v>2.179343180933333</v>
+        <v>0.011779655715</v>
       </c>
       <c r="R3">
-        <v>13.0760590856</v>
+        <v>0.07067793428999999</v>
       </c>
       <c r="S3">
-        <v>0.190890334512349</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="T3">
-        <v>0.1649401532106646</v>
+        <v>0.01315479903429321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.38698</v>
+        <v>0.360135</v>
       </c>
       <c r="H4">
-        <v>2.77396</v>
+        <v>0.72027</v>
       </c>
       <c r="I4">
-        <v>0.5967131687073423</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4965808999056411</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N4">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O4">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P4">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q4">
-        <v>0.7536669012599999</v>
+        <v>0.28502668494</v>
       </c>
       <c r="R4">
-        <v>3.01466760504</v>
+        <v>1.14010673976</v>
       </c>
       <c r="S4">
-        <v>0.06601425977839508</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="T4">
-        <v>0.03802672757896221</v>
+        <v>0.2122002459444833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.38698</v>
+        <v>0.360135</v>
       </c>
       <c r="H5">
-        <v>2.77396</v>
+        <v>0.72027</v>
       </c>
       <c r="I5">
-        <v>0.5967131687073423</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4965808999056411</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N5">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O5">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P5">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q5">
-        <v>0.4601759230133332</v>
+        <v>0.491380318545</v>
       </c>
       <c r="R5">
-        <v>2.761055538079999</v>
+        <v>2.94828191127</v>
       </c>
       <c r="S5">
-        <v>0.04030716072946536</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="T5">
-        <v>0.03482768932847572</v>
+        <v>0.5487434859098049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,371 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.360135</v>
+      </c>
+      <c r="H6">
+        <v>0.72027</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.38698</v>
-      </c>
-      <c r="H6">
-        <v>2.77396</v>
-      </c>
-      <c r="I6">
-        <v>0.5967131687073423</v>
-      </c>
-      <c r="J6">
-        <v>0.4965808999056411</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N6">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O6">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P6">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q6">
-        <v>3.373959688446666</v>
+        <v>0.029059653285</v>
       </c>
       <c r="R6">
-        <v>20.24375813068</v>
+        <v>0.17435791971</v>
       </c>
       <c r="S6">
-        <v>0.2955277072438584</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="T6">
-        <v>0.2553528204312779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H7">
-        <v>2.812159</v>
-      </c>
-      <c r="I7">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J7">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.032709</v>
-      </c>
-      <c r="N7">
-        <v>0.09812699999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.006659324197390493</v>
-      </c>
-      <c r="P7">
-        <v>0.006914300080637592</v>
-      </c>
-      <c r="Q7">
-        <v>0.030660969577</v>
-      </c>
-      <c r="R7">
-        <v>0.275948726193</v>
-      </c>
-      <c r="S7">
-        <v>0.002685617754116133</v>
-      </c>
-      <c r="T7">
-        <v>0.00348079072437693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H8">
-        <v>2.812159</v>
-      </c>
-      <c r="I8">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J8">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>1.571286666666666</v>
-      </c>
-      <c r="N8">
-        <v>4.713859999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.3199030028545777</v>
-      </c>
-      <c r="P8">
-        <v>0.3321516257310864</v>
-      </c>
-      <c r="Q8">
-        <v>1.472902647082222</v>
-      </c>
-      <c r="R8">
-        <v>13.25612382374</v>
-      </c>
-      <c r="S8">
-        <v>0.1290126683422287</v>
-      </c>
-      <c r="T8">
-        <v>0.1672114725204218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H9">
-        <v>2.812159</v>
-      </c>
-      <c r="I9">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J9">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.543387</v>
-      </c>
-      <c r="N9">
-        <v>1.086774</v>
-      </c>
-      <c r="O9">
-        <v>0.1106298021231902</v>
-      </c>
-      <c r="P9">
-        <v>0.07657710472994016</v>
-      </c>
-      <c r="Q9">
-        <v>0.509363547511</v>
-      </c>
-      <c r="R9">
-        <v>3.056181285066</v>
-      </c>
-      <c r="S9">
-        <v>0.04461554234479511</v>
-      </c>
-      <c r="T9">
-        <v>0.03855037715097796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H10">
-        <v>2.812159</v>
-      </c>
-      <c r="I10">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J10">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.3317826666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.9953479999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.06754863616766264</v>
-      </c>
-      <c r="P10">
-        <v>0.07013497566075051</v>
-      </c>
-      <c r="Q10">
-        <v>0.3110085373702222</v>
-      </c>
-      <c r="R10">
-        <v>2.799076836332</v>
-      </c>
-      <c r="S10">
-        <v>0.02724147543819728</v>
-      </c>
-      <c r="T10">
-        <v>0.03530728633227479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.9373863333333334</v>
-      </c>
-      <c r="H11">
-        <v>2.812159</v>
-      </c>
-      <c r="I11">
-        <v>0.4032868312926577</v>
-      </c>
-      <c r="J11">
-        <v>0.503419100094359</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.432594333333333</v>
-      </c>
-      <c r="N11">
-        <v>7.297783</v>
-      </c>
-      <c r="O11">
-        <v>0.4952592346571789</v>
-      </c>
-      <c r="P11">
-        <v>0.5142219937975853</v>
-      </c>
-      <c r="Q11">
-        <v>2.280280682610778</v>
-      </c>
-      <c r="R11">
-        <v>20.522526143497</v>
-      </c>
-      <c r="S11">
-        <v>0.1997315274133205</v>
-      </c>
-      <c r="T11">
-        <v>0.2588691733663074</v>
+        <v>0.03245204343991419</v>
       </c>
     </row>
   </sheetData>
